--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bot-whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE5FF7D-4E1E-424C-8420-39EF95FC0434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94243A51-032A-4073-9A4C-FCA9ECA2E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EFBE230-0AB9-4530-892D-9A16470D1A83}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{3EFBE230-0AB9-4530-892D-9A16470D1A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -143,30 +143,26 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97817C39-92C5-4B8E-9017-8EA3630379D2}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,49 +521,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
+      <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="9"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>5519991373111</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
